--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,7 +97,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -218,102 +218,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -590,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3041,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:BB11"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CE12" sqref="CE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL1" s="1">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF3" s="1">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL3" s="1">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL4" s="1">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL6" s="1">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL7" s="1">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="1">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL9" s="1">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="CD9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE9" s="1">
         <v>0</v>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="8610"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12600" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="LampGame_ステージ1-1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -97,7 +98,343 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -494,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CE12" sqref="CE12"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BU12" sqref="BU12:CV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -691,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL1" s="1">
         <v>0</v>
@@ -778,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="CN1" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO1" s="1">
         <v>0</v>
@@ -993,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -1080,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="CN2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO2" s="1">
         <v>0</v>
@@ -1295,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="1">
         <v>0</v>
@@ -1382,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO3" s="1">
         <v>0</v>
@@ -1597,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL4" s="1">
         <v>0</v>
@@ -1684,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO4" s="1">
         <v>0</v>
@@ -1899,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1980,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="CL5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CM5" s="1">
         <v>0</v>
       </c>
       <c r="CN5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO5" s="1">
         <v>0</v>
@@ -2201,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL6" s="1">
         <v>0</v>
@@ -2288,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO6" s="1">
         <v>0</v>
@@ -2503,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL7" s="1">
         <v>0</v>
@@ -2590,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="CN7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO7" s="1">
         <v>0</v>
@@ -2805,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
@@ -2892,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="CN8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO8" s="1">
         <v>0</v>
@@ -3107,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL9" s="1">
         <v>0</v>
@@ -3146,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BY9" s="1">
         <v>0</v>
@@ -3158,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="CB9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CC9" s="1">
         <v>0</v>
@@ -3194,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="CN9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO9" s="1">
         <v>0</v>
@@ -3403,10 +3740,10 @@
         <v>1</v>
       </c>
       <c r="BI10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK10" s="1">
         <v>1</v>
@@ -3525,55 +3862,72 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AY10:CV10 AY4:BD4 BF4:BJ4 BE3:BE4 A1:AX10 AY5:BJ9 BL4:CV9">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+  <conditionalFormatting sqref="AY4:BD4 BF4:BJ4 BE3:BE4 A1:AX10 AY5:BJ9 BL4:CV9 AY10:CV10">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9 CN4:CN9">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CV10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12600" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="LampGame_ステージ1-1" sheetId="1" r:id="rId1"/>
@@ -98,29 +98,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="20">
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -136,144 +121,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -284,154 +136,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -832,7 +541,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BU12" sqref="BU12:CV13"/>
+      <selection activeCell="BN16" sqref="BN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3438,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ9" s="1">
         <v>0</v>
@@ -3734,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI10" s="1">
         <v>4</v>
@@ -3914,19 +3623,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,6 +31,7 @@
     <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -97,7 +98,52 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -494,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CE12" sqref="CE12"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BN16" sqref="BN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -691,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL1" s="1">
         <v>0</v>
@@ -778,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="CN1" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO1" s="1">
         <v>0</v>
@@ -993,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -1080,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="CN2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO2" s="1">
         <v>0</v>
@@ -1295,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="1">
         <v>0</v>
@@ -1382,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO3" s="1">
         <v>0</v>
@@ -1597,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL4" s="1">
         <v>0</v>
@@ -1684,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO4" s="1">
         <v>0</v>
@@ -1899,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1980,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="CL5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CM5" s="1">
         <v>0</v>
       </c>
       <c r="CN5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO5" s="1">
         <v>0</v>
@@ -2201,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL6" s="1">
         <v>0</v>
@@ -2288,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO6" s="1">
         <v>0</v>
@@ -2503,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL7" s="1">
         <v>0</v>
@@ -2590,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="CN7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO7" s="1">
         <v>0</v>
@@ -2805,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
@@ -2892,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="CN8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO8" s="1">
         <v>0</v>
@@ -3101,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ9" s="1">
         <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL9" s="1">
         <v>0</v>
@@ -3146,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BY9" s="1">
         <v>0</v>
@@ -3158,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="CB9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CC9" s="1">
         <v>0</v>
@@ -3194,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="CN9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO9" s="1">
         <v>0</v>
@@ -3397,16 +3443,16 @@
         <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK10" s="1">
         <v>1</v>
@@ -3525,55 +3571,72 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AY10:CV10 AY4:BD4 BF4:BJ4 BE3:BE4 A1:AX10 AY5:BJ9 BL4:CV9">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+  <conditionalFormatting sqref="AY4:BD4 BF4:BJ4 BE3:BE4 A1:AX10 AY5:BJ9 BL4:CV9 AY10:CV10">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9 CN4:CN9">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CV10">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BN16" sqref="BN16"/>
+      <selection activeCell="CK18" sqref="CK18:CL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="CN1" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO1" s="1">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="CN2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO2" s="1">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO3" s="1">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO4" s="1">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="CL5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="1">
         <v>7</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="1">
-        <v>8</v>
       </c>
       <c r="CO5" s="1">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO6" s="1">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="CN7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO7" s="1">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="CN8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO8" s="1">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY9" s="1">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="CB9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC9" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="CN9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO9" s="1">
         <v>0</v>
@@ -3591,7 +3591,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9 CN4:CN9">
+  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9 CN2:CN9">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,13 +537,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CP15" sqref="BJ14:CP15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="41" max="41" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="3.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -656,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="AL1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="1">
         <v>0</v>
@@ -698,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="1">
         <v>0</v>
@@ -740,86 +745,86 @@
         <v>0</v>
       </c>
       <c r="BN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="1">
         <v>7</v>
       </c>
-      <c r="BO1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>4</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>4</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>4</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>4</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>4</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>4</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>4</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>4</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH1" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM1" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN1" s="1">
-        <v>0</v>
-      </c>
       <c r="CO1" s="1">
         <v>0</v>
       </c>
@@ -845,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -958,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
         <v>0</v>
@@ -979,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -988,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="1">
         <v>0</v>
@@ -1000,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
@@ -1042,86 +1047,86 @@
         <v>0</v>
       </c>
       <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
         <v>7</v>
       </c>
-      <c r="BO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>4</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>0</v>
-      </c>
       <c r="CO2" s="1">
         <v>0</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1167,13 +1172,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1260,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1302,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1311,22 +1316,22 @@
         <v>0</v>
       </c>
       <c r="BC3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>0</v>
@@ -1344,86 +1349,86 @@
         <v>0</v>
       </c>
       <c r="BN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1">
         <v>7</v>
       </c>
-      <c r="BO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>4</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>0</v>
-      </c>
       <c r="CO3" s="1">
         <v>0</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1469,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1562,1102 +1567,1102 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>7</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>7</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>8</v>
       </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AT4" s="1">
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
         <v>8</v>
       </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1">
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="1">
         <v>8</v>
       </c>
-      <c r="BH4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>7</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB4" s="1">
-        <v>4</v>
-      </c>
-      <c r="CC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="1">
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>7</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>7</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>6</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>7</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BX7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BY7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BZ7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CA7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CC7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CD7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2704,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -2737,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -2779,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="1">
         <v>0</v>
@@ -2818,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="1">
         <v>0</v>
@@ -2854,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BO8" s="1">
         <v>0</v>
@@ -2875,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV8" s="1">
         <v>0</v>
@@ -2914,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="CH8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CI8" s="1">
         <v>0</v>
@@ -2926,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="CL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO8" s="1">
         <v>0</v>
@@ -2959,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3003,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -3024,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -3042,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
         <v>0</v>
@@ -3060,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="1">
         <v>0</v>
@@ -3078,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
@@ -3102,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="1">
         <v>0</v>
@@ -3117,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="1">
         <v>0</v>
@@ -3135,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH9" s="1">
         <v>0</v>
@@ -3144,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK9" s="1">
         <v>0</v>
@@ -3156,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="1">
         <v>0</v>
@@ -3174,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="BT9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="1">
         <v>0</v>
@@ -3192,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA9" s="1">
         <v>0</v>
@@ -3204,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="CD9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE9" s="1">
         <v>0</v>
@@ -3216,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="CH9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CI9" s="1">
         <v>0</v>
@@ -3225,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="CK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO9" s="1">
         <v>0</v>
@@ -3261,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:100" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3317,52 +3322,52 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
         <v>1</v>
@@ -3464,10 +3469,10 @@
         <v>1</v>
       </c>
       <c r="BP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10" s="1">
         <v>1</v>
@@ -3565,7 +3570,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BK6 BL4:CV6 A7:CV10 BL1:CQ3">
+  <conditionalFormatting sqref="AW1:BJ6 AR1:CV1 A10:CV10 A1:AQ9 BK1:BK9 CC1:CC9 H1:CO3 H4:CV9">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3585,7 +3590,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BH4 BK2:BK9 BJ2:BJ5 AZ2:AZ6 BA6:BH6 BH5 BC2:BI3 BT4:BT7 BU7 CD4:CD7 BW7:CC7 BN4:BN8 CH4:CO9 BL2:CV3 AZ1:CV1">
+  <conditionalFormatting sqref="CN4:CN9 I4:I9 K4:K9 M4:M9 O4:O9 Q4:Q9 S4:S9 U4:U9 W4:W9 Y4:Y9 AA4:AA9 AC4:AC9 AE4:AE9 AG4:AG9 AI4:AI9 AK4:AK9 AM4:AM9 AO4:AO9 AQ4:AQ9 AS4:AS9 AU4:AU9 AW4:AW9 AY4:AY9 BA4:BA9 BC4:BC9 BE4:BE9 BG4:BG9 BI4:BI9 BK2:BK9 BM4:BM9 BO4:BO9 BQ4:BQ9 BS4:BS9 BU4:BU9 BW4:BW9 BY4:BY9 CA4:CA9 CC4:CC9 CE4:CE9 CG4:CG9 CI4:CI9 CK4:CK9 H2:CV3 I5:AB9">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3605,7 +3610,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI4">
+  <conditionalFormatting sqref="AC3">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\ランカゲ\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV7" sqref="AV7"/>
+      <selection activeCell="BO9" sqref="BO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>

--- a/LampGame/LampGame/stagedata/Stage1.xlsx
+++ b/LampGame/LampGame/stagedata/Stage1.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BO9" sqref="BO9"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="BY7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="1">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="CB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="CE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF7" s="1">
         <v>0</v>
